--- a/team_specific_matrix/Notre Dame (MD)_B.xlsx
+++ b/team_specific_matrix/Notre Dame (MD)_B.xlsx
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
   </sheetData>
